--- a/biology/Zoologie/Asterodiscididae/Asterodiscididae.xlsx
+++ b/biology/Zoologie/Asterodiscididae/Asterodiscididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Asterodiscididae sont une famille d'étoiles de mer de l'ordre des Valvatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Asterodiscididae a été créée en 1977 par Francis W. E. Rowe (d) avec comme genre type Asterodiscides[1]. Sa création répondait à la nécessité d'inclure des taxons intermédiaires entre Goniasteridae et Oreasteridae, et la famille a été revue plusieurs fois et pourrait l'être encore à l'avenir, incluant notamment le genre Goniaster[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Asterodiscididae a été créée en 1977 par Francis W. E. Rowe (d) avec comme genre type Asterodiscides. Sa création répondait à la nécessité d'inclure des taxons intermédiaires entre Goniasteridae et Oreasteridae, et la famille a été revue plusieurs fois et pourrait l'être encore à l'avenir, incluant notamment le genre Goniaster. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille assez restreinte porte des tubercules plus ou moins coniques sur la face aborale et le plus souvent des papules sur les plaques intermarginales[2]. Elle a également pour particularité que la paire de plaques terminales supéromarginales est très apparente sur les bras, alors que les autres plaques marginales sont dissimulées sous l'épiderme granuleux[3] ; cependant ce caractère n'est plus systématique depuis la révision de 2021[2]. 
-Les jeunes spécimens sont aplatis et pentagonaux comme de nombreuses Goniasteridae, mais avec des épines ou tubercules déjà bien manifestes au moins sur les plaques supéromarginales[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille assez restreinte porte des tubercules plus ou moins coniques sur la face aborale et le plus souvent des papules sur les plaques intermarginales. Elle a également pour particularité que la paire de plaques terminales supéromarginales est très apparente sur les bras, alors que les autres plaques marginales sont dissimulées sous l'épiderme granuleux ; cependant ce caractère n'est plus systématique depuis la révision de 2021. 
+Les jeunes spécimens sont aplatis et pentagonaux comme de nombreuses Goniasteridae, mais avec des épines ou tubercules déjà bien manifestes au moins sur les plaques supéromarginales.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (11 avril 2021)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (11 avril 2021) :
 genre Amphiaster Verrill, 1868
 Amphiaster insignis Verrill, 1868 -- Pacifique est
 genre Asterodiscides A. M. Clark, 1974
@@ -609,7 +627,7 @@
 			Amphiaster insignis.
 			Asterodiscides fourmanoiri.
 			Uokeaster ahi.
-Blake &amp; Portell (2011) ajoutent également le genre fossile du Miocène Kionaster (trouvé en Floride)[2].
+Blake &amp; Portell (2011) ajoutent également le genre fossile du Miocène Kionaster (trouvé en Floride).
 </t>
         </is>
       </c>
@@ -638,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) F. W. E. Rowe, « A new family of Asteroidea (Echinodermata), with the description of five new secies and one new subspecies of Asterodiscides », Records of the Australian Museum, Sydney, Australian Museum et inconnu, vol. 31, no 5,‎ 30 septembre 1977, p. 187-233 (ISSN 0067-1975 et 2201-4349, OCLC 1385608, DOI 10.3853/J.0067-1975.31.1977.209, lire en ligne)</t>
         </is>
@@ -668,7 +688,9 @@
           <t>Référence taxonomique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
